--- a/Content/ExcelTemplates/CBS_Trainings.xlsx
+++ b/Content/ExcelTemplates/CBS_Trainings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Employee Name</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Training Provider</t>
   </si>
   <si>
-    <t>External</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -40,10 +37,19 @@
     <t>Time Duration</t>
   </si>
   <si>
-    <t>Cost Money</t>
-  </si>
-  <si>
     <t>EmpID</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Foreign/Local</t>
+  </si>
+  <si>
+    <t>Training Type</t>
+  </si>
+  <si>
+    <t>Training Focus</t>
   </si>
 </sst>
 </file>
@@ -394,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,12 +415,14 @@
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
-    <col min="8" max="8" width="46.85546875" customWidth="1"/>
-    <col min="9" max="9" width="39.140625" customWidth="1"/>
-    <col min="10" max="10" width="59.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,21 +436,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
